--- a/BalanceSheet/IQV_bal.xlsx
+++ b/BalanceSheet/IQV_bal.xlsx
@@ -2946,19 +2946,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-58000000.0</v>
+        <v>304000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>416000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-40000000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>646000000.0</v>
